--- a/Part 1 - Algorithms with performance analysis/Computations.xlsx
+++ b/Part 1 - Algorithms with performance analysis/Computations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukad\Documents\GitHub\Mandelbrot-Mini-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukad\Documents\GitHub\Mandelbrot-Mini-Project\Part 1 - Algorithms with performance analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF7A3FE-48AC-49ED-AE34-25320C5037F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F568EBD1-FC95-4563-A2F1-365D6BF43BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77A506D2-D67E-4284-9023-358B7623300F}"/>
   </bookViews>
@@ -189,11 +189,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> 10 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK"/>
               <a:t>Best Performing</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> Parameters (top 10)</a:t>
+              <a:t> Parameters (Left lowest computation time)</a:t>
             </a:r>
             <a:endParaRPr lang="da-DK"/>
           </a:p>
@@ -261,10 +269,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Best Runs'!$A$2:$A$10</c:f>
+              <c:f>'Best Runs'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -290,6 +298,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -297,10 +308,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Best Runs'!$A$2:$A$10</c:f>
+              <c:f>'Best Runs'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -326,6 +337,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -363,10 +377,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Best Runs'!$A$2:$A$10</c:f>
+              <c:f>'Best Runs'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -392,6 +406,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -399,10 +416,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Best Runs'!$B$2:$B$10</c:f>
+              <c:f>'Best Runs'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>81</c:v>
                 </c:pt>
@@ -429,6 +446,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,12 +500,51 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Best Runs'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Best Runs'!$C$2:$C$10</c:f>
+              <c:f>'Best Runs'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.22848</c:v>
                 </c:pt>
@@ -512,6 +571,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.2623500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,6 +928,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10021,9 +10084,9 @@
       <xdr:rowOff>173736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10595,7 +10658,7 @@
   <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Part 1 - Algorithms with performance analysis/Computations.xlsx
+++ b/Part 1 - Algorithms with performance analysis/Computations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukad\Documents\GitHub\Mandelbrot-Mini-Project\Part 1 - Algorithms with performance analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F568EBD1-FC95-4563-A2F1-365D6BF43BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F511013B-6B6C-4BDE-AAFA-64F4B3762C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77A506D2-D67E-4284-9023-358B7623300F}"/>
+    <workbookView xWindow="4188" yWindow="7560" windowWidth="10116" windowHeight="3300" xr2:uid="{77A506D2-D67E-4284-9023-358B7623300F}"/>
   </bookViews>
   <sheets>
     <sheet name="Best Runs" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="16">
   <si>
     <t>time:</t>
   </si>
@@ -87,6 +87,9 @@
   <si>
     <t>Computation Time(s)</t>
   </si>
+  <si>
+    <t>Processors</t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +110,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,11 +142,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,7 +265,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cores</c:v>
+                  <c:v>Processors</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10657,9 +10670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FD862E-865E-4A73-8BE3-21E5FBE40944}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10668,8 +10679,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
